--- a/data/customers.xlsx
+++ b/data/customers.xlsx
@@ -461,14 +461,14 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45105</v>
+        <v>45115</v>
       </c>
       <c r="B2" t="n">
-        <v>188</v>
+        <v>428</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,62 +477,62 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45025</v>
+        <v>45077</v>
       </c>
       <c r="B3" t="n">
-        <v>908</v>
+        <v>428</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45083</v>
+        <v>44990</v>
       </c>
       <c r="B4" t="n">
-        <v>894</v>
+        <v>701</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45046</v>
+        <v>44997</v>
       </c>
       <c r="B5" t="n">
-        <v>638</v>
+        <v>477</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45082</v>
+        <v>45097</v>
       </c>
       <c r="B6" t="n">
-        <v>529</v>
+        <v>957</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -541,14 +541,14 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45056</v>
+        <v>44959</v>
       </c>
       <c r="B7" t="n">
-        <v>689</v>
+        <v>354</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KZ</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -557,30 +557,30 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44994</v>
+        <v>45070</v>
       </c>
       <c r="B8" t="n">
-        <v>96</v>
+        <v>691</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>UA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45056</v>
+        <v>45110</v>
       </c>
       <c r="B9" t="n">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>UA</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -589,14 +589,14 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45104</v>
+        <v>45024</v>
       </c>
       <c r="B10" t="n">
-        <v>662</v>
+        <v>493</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -605,18 +605,18 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45018</v>
+        <v>45124</v>
       </c>
       <c r="B11" t="n">
-        <v>152</v>
+        <v>478</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/customers.xlsx
+++ b/data/customers.xlsx
@@ -461,42 +461,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45115</v>
+        <v>45089</v>
       </c>
       <c r="B2" t="n">
-        <v>428</v>
+        <v>924</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KZ</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45077</v>
+        <v>45089</v>
       </c>
       <c r="B3" t="n">
-        <v>428</v>
+        <v>245</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44990</v>
+        <v>45023</v>
       </c>
       <c r="B4" t="n">
-        <v>701</v>
+        <v>581</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -509,62 +509,62 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44997</v>
+        <v>45062</v>
       </c>
       <c r="B5" t="n">
-        <v>477</v>
+        <v>958</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45097</v>
+        <v>45020</v>
       </c>
       <c r="B6" t="n">
-        <v>957</v>
+        <v>714</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44959</v>
+        <v>45099</v>
       </c>
       <c r="B7" t="n">
-        <v>354</v>
+        <v>662</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45070</v>
+        <v>44966</v>
       </c>
       <c r="B8" t="n">
-        <v>691</v>
+        <v>289</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -573,30 +573,30 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45110</v>
+        <v>44971</v>
       </c>
       <c r="B9" t="n">
-        <v>268</v>
+        <v>567</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>uA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45024</v>
+        <v>45093</v>
       </c>
       <c r="B10" t="n">
-        <v>493</v>
+        <v>904</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -605,18 +605,18 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45124</v>
+        <v>45118</v>
       </c>
       <c r="B11" t="n">
-        <v>478</v>
+        <v>104</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/customers.xlsx
+++ b/data/customers.xlsx
@@ -461,94 +461,94 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45089</v>
+        <v>45094</v>
       </c>
       <c r="B2" t="n">
-        <v>924</v>
+        <v>528</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45089</v>
+        <v>45009</v>
       </c>
       <c r="B3" t="n">
-        <v>245</v>
+        <v>826</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>uA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45023</v>
+        <v>44996</v>
       </c>
       <c r="B4" t="n">
-        <v>581</v>
+        <v>911</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B5" t="n">
-        <v>958</v>
+        <v>935</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KZ</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45020</v>
+        <v>45090</v>
       </c>
       <c r="B6" t="n">
-        <v>714</v>
+        <v>76</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45099</v>
+        <v>45016</v>
       </c>
       <c r="B7" t="n">
-        <v>662</v>
+        <v>809</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -557,66 +557,66 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44966</v>
+        <v>44983</v>
       </c>
       <c r="B8" t="n">
-        <v>289</v>
+        <v>429</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44971</v>
+        <v>44991</v>
       </c>
       <c r="B9" t="n">
-        <v>567</v>
+        <v>49</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>uA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45093</v>
+        <v>45095</v>
       </c>
       <c r="B10" t="n">
-        <v>904</v>
+        <v>763</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>uA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45118</v>
+        <v>45099</v>
       </c>
       <c r="B11" t="n">
-        <v>104</v>
+        <v>556</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
